--- a/biology/Zoologie/Chaetodon_marleyi/Chaetodon_marleyi.xlsx
+++ b/biology/Zoologie/Chaetodon_marleyi/Chaetodon_marleyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetodon marleyi est une espèce de poissons appartenant à la famille des Chaetodontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaetodon marleyi se rencontre dans l'ouest de l'océan Indien, depuis la baie de Maputo au Mozambique jusqu'à Lambert's Bay (en) en Afrique du Sud[1], et est présent jusqu'à une profondeur maximale de 120 m[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaetodon marleyi se rencontre dans l'ouest de l'océan Indien, depuis la baie de Maputo au Mozambique jusqu'à Lambert's Bay (en) en Afrique du Sud, et est présent jusqu'à une profondeur maximale de 120 m.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Chaetodon marleyi est de 200 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Chaetodon marleyi est de 200 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom spécifique, marleyi, lui a été donné en l'honneur de Harold Walter Bell-Marley (1872-1945) qui a collecté les spécimens analysés.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Regan, « Three new fishes from South Africa, collected by Mr. H. W. Bell Marley », Annals of the Durban Museum, vol. 3, no 1,‎ 1921, p. 1-2 (lire en ligne, consulté le 30 décembre 2019).</t>
         </is>
